--- a/data/output/BG Perf_Wk 2023024.xlsx
+++ b/data/output/BG Perf_Wk 2023024.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AJ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,10 @@
         <v>2023024</v>
       </c>
       <c r="AH1" s="1" t="n"/>
+      <c r="AI1" s="1" t="n">
+        <v>2023025</v>
+      </c>
+      <c r="AJ1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
@@ -691,6 +695,16 @@
           <t>TARGET</t>
         </is>
       </c>
+      <c r="AI2" s="1" t="inlineStr">
+        <is>
+          <t>ACTUAL</t>
+        </is>
+      </c>
+      <c r="AJ2" s="1" t="inlineStr">
+        <is>
+          <t>TARGET</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -794,22 +808,28 @@
         <v>814.678823855442</v>
       </c>
       <c r="AC4" t="n">
-        <v>942.8005266954052</v>
+        <v>942.8005266954049</v>
       </c>
       <c r="AD4" t="n">
         <v>873.3892523302055</v>
       </c>
       <c r="AE4" t="n">
-        <v>834.7299440730504</v>
+        <v>834.7299440730505</v>
       </c>
       <c r="AF4" t="n">
         <v>856.5297286684802</v>
       </c>
       <c r="AG4" t="n">
-        <v>805.0858997221078</v>
+        <v>805.0858997221079</v>
       </c>
       <c r="AH4" t="n">
         <v>838.8229189175122</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>116.6162360937614</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>118.9196368606403</v>
       </c>
     </row>
     <row r="5">
@@ -902,22 +922,28 @@
         <v>1774.14657824935</v>
       </c>
       <c r="AC5" t="n">
-        <v>1363.9203396525</v>
+        <v>1363.9216586625</v>
       </c>
       <c r="AD5" t="n">
         <v>1421.009092698139</v>
       </c>
       <c r="AE5" t="n">
-        <v>1363.1797762798</v>
+        <v>1363.1812221898</v>
       </c>
       <c r="AF5" t="n">
         <v>1406.48802013241</v>
       </c>
       <c r="AG5" t="n">
-        <v>1368.4857222868</v>
+        <v>1368.4772447768</v>
       </c>
       <c r="AH5" t="n">
         <v>1421.05652179609</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>436.4673852149999</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>465.140103221877</v>
       </c>
     </row>
     <row r="6">
@@ -1010,22 +1036,28 @@
         <v>483.0331640019511</v>
       </c>
       <c r="AC6" t="n">
-        <v>196.3831790962336</v>
+        <v>196.3898468074485</v>
       </c>
       <c r="AD6" t="n">
         <v>208.9416305635621</v>
       </c>
       <c r="AE6" t="n">
-        <v>319.8776231509696</v>
+        <v>319.8982521014883</v>
       </c>
       <c r="AF6" t="n">
         <v>332.5760920601386</v>
       </c>
       <c r="AG6" t="n">
-        <v>311.0390256184379</v>
+        <v>313.8926649799984</v>
       </c>
       <c r="AH6" t="n">
         <v>337.4491273426456</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>147.739682206363</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>160.2484158793162</v>
       </c>
     </row>
     <row r="7">
@@ -1118,22 +1150,28 @@
         <v>74.40398460532771</v>
       </c>
       <c r="AC7" t="n">
-        <v>168.1429558900001</v>
+        <v>168.1429558900002</v>
       </c>
       <c r="AD7" t="n">
         <v>195.3958100426649</v>
       </c>
       <c r="AE7" t="n">
-        <v>47.36705330999998</v>
+        <v>47.36705330999999</v>
       </c>
       <c r="AF7" t="n">
         <v>53.2534934779482</v>
       </c>
       <c r="AG7" t="n">
-        <v>54.84322025</v>
+        <v>54.89843439999998</v>
       </c>
       <c r="AH7" t="n">
         <v>62.4470488081905</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>24.81359712999999</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>28.11600879586866</v>
       </c>
     </row>
     <row r="8">
@@ -1241,9 +1279,15 @@
       <c r="AH8" t="n">
         <v>460</v>
       </c>
+      <c r="AI8" t="n">
+        <v>518</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>460</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
@@ -1258,6 +1302,7 @@
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="I1:J1"/>
   </mergeCells>
